--- a/app test sampling/sampling.xlsx
+++ b/app test sampling/sampling.xlsx
@@ -486,14 +486,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1648,12 +1648,12 @@
         <v>9</v>
       </c>
       <c r="B104">
-        <f>SUM(B2:B88)</f>
-        <v>67</v>
+        <f>(SUM(B2:B88)/COUNT(B2:B88)*100)</f>
+        <v>77.011494252873561</v>
       </c>
       <c r="C104">
-        <f>SUM(C2:C88)</f>
-        <v>75</v>
+        <f>(SUM(C2:C88)/COUNT(C2:C88)*100)</f>
+        <v>86.206896551724128</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1661,12 +1661,12 @@
         <v>10</v>
       </c>
       <c r="B105">
-        <f>SUM(B89:B101)</f>
-        <v>13</v>
+        <f>(SUM(B89:B101)/COUNT(B89:B101)) * 100</f>
+        <v>100</v>
       </c>
       <c r="C105">
-        <f>SUM(C89:C101)</f>
-        <v>13</v>
+        <f>(SUM(C89:C101)/COUNT(C89:C101)) * 100</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/app test sampling/sampling.xlsx
+++ b/app test sampling/sampling.xlsx
@@ -16,30 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>A</t>
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>more on DE</t>
-  </si>
-  <si>
-    <t>more on AD</t>
-  </si>
-  <si>
-    <t>suspect</t>
-  </si>
-  <si>
-    <t>high suspection</t>
-  </si>
-  <si>
-    <t>rem and normal</t>
-  </si>
-  <si>
-    <t>calm sleep</t>
   </si>
   <si>
     <t>overall</t>
@@ -484,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -520,1111 +502,694 @@
       <c r="A3" s="4">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4">
         <v>43</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4">
         <v>159</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4">
         <v>175</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4">
         <v>177</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4">
         <v>213</v>
       </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4">
         <v>235</v>
       </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4">
         <v>239</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4">
         <v>253</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4">
         <v>259</v>
       </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4">
         <v>265</v>
       </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4">
         <v>268</v>
       </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4">
         <v>285</v>
       </c>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4">
         <v>301</v>
       </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="4">
         <v>301</v>
       </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="4">
         <v>317</v>
       </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="4">
         <v>366</v>
       </c>
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="4">
         <v>381</v>
       </c>
-      <c r="B20" s="5">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="4">
         <v>387</v>
       </c>
-      <c r="B21" s="5">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="4">
         <v>410</v>
       </c>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="4">
         <v>427</v>
       </c>
-      <c r="B23" s="5">
-        <v>0</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="4">
         <v>435</v>
       </c>
-      <c r="B24" s="5">
-        <v>1</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="4">
         <v>458</v>
       </c>
-      <c r="B25" s="5">
-        <v>1</v>
-      </c>
-      <c r="C25" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="4">
         <v>472</v>
       </c>
-      <c r="B26" s="5">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="4">
         <v>543</v>
       </c>
-      <c r="B27" s="5">
-        <v>0</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="4">
         <v>546</v>
       </c>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-      <c r="C28" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="4">
         <v>554</v>
       </c>
-      <c r="B29" s="5">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="4">
         <v>624</v>
       </c>
-      <c r="B30" s="5">
-        <v>1</v>
-      </c>
-      <c r="C30" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="4">
         <v>652</v>
       </c>
-      <c r="B31" s="5">
-        <v>0</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="4">
         <v>675</v>
       </c>
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32" s="6">
-        <v>1</v>
-      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4">
         <v>693</v>
       </c>
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-      <c r="C33" s="6">
-        <v>1</v>
-      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4">
         <v>693</v>
       </c>
-      <c r="B34" s="5">
-        <v>1</v>
-      </c>
-      <c r="C34" s="6">
-        <v>1</v>
-      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4">
         <v>697</v>
       </c>
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35" s="6">
-        <v>1</v>
-      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4">
         <v>706</v>
       </c>
-      <c r="B36" s="5">
-        <v>0</v>
-      </c>
-      <c r="C36" s="6">
-        <v>1</v>
-      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4">
         <v>725</v>
       </c>
-      <c r="B37" s="5">
-        <v>0</v>
-      </c>
-      <c r="C37" s="6">
-        <v>0</v>
-      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="4">
         <v>771</v>
       </c>
-      <c r="B38" s="5">
-        <v>0</v>
-      </c>
-      <c r="C38" s="6">
-        <v>0</v>
-      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4">
         <v>788</v>
       </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
-      <c r="C39" s="6">
-        <v>1</v>
-      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4">
         <v>799</v>
       </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-      <c r="C40" s="6">
-        <v>1</v>
-      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4">
         <v>802</v>
       </c>
-      <c r="B41" s="5">
-        <v>1</v>
-      </c>
-      <c r="C41" s="6">
-        <v>1</v>
-      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="4">
         <v>827</v>
       </c>
-      <c r="B42" s="5">
-        <v>1</v>
-      </c>
-      <c r="C42" s="6">
-        <v>1</v>
-      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4">
         <v>902</v>
       </c>
-      <c r="B43" s="5">
-        <v>1</v>
-      </c>
-      <c r="C43" s="6">
-        <v>1</v>
-      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4">
         <v>925</v>
       </c>
-      <c r="B44" s="5">
-        <v>1</v>
-      </c>
-      <c r="C44" s="6">
-        <v>1</v>
-      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="4">
         <v>950</v>
       </c>
-      <c r="B45" s="5">
-        <v>1</v>
-      </c>
-      <c r="C45" s="6">
-        <v>1</v>
-      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="4">
         <v>1005</v>
       </c>
-      <c r="B46" s="5">
-        <v>0</v>
-      </c>
-      <c r="C46" s="6">
-        <v>1</v>
-      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="4">
         <v>1019</v>
       </c>
-      <c r="B47" s="5">
-        <v>1</v>
-      </c>
-      <c r="C47" s="6">
-        <v>1</v>
-      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4">
         <v>1030</v>
       </c>
-      <c r="B48" s="5">
-        <v>1</v>
-      </c>
-      <c r="C48" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="4">
         <v>1059</v>
       </c>
-      <c r="B49" s="5">
-        <v>1</v>
-      </c>
-      <c r="C49" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="4">
         <v>1092</v>
       </c>
-      <c r="B50" s="5">
-        <v>1</v>
-      </c>
-      <c r="C50" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="4">
         <v>1136</v>
       </c>
-      <c r="B51" s="5">
-        <v>1</v>
-      </c>
-      <c r="C51" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="4">
         <v>1178</v>
       </c>
-      <c r="B52" s="5">
-        <v>1</v>
-      </c>
-      <c r="C52" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="4">
         <v>1197</v>
       </c>
-      <c r="B53" s="5">
-        <v>1</v>
-      </c>
-      <c r="C53" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="4">
         <v>1202</v>
       </c>
-      <c r="B54" s="5">
-        <v>1</v>
-      </c>
-      <c r="C54" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="4">
         <v>1220</v>
       </c>
-      <c r="B55" s="5">
-        <v>1</v>
-      </c>
-      <c r="C55" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="4">
         <v>1249</v>
       </c>
-      <c r="B56" s="5">
-        <v>1</v>
-      </c>
-      <c r="C56" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="4">
         <v>1250</v>
       </c>
-      <c r="B57" s="5">
-        <v>1</v>
-      </c>
-      <c r="C57" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="4">
         <v>1272</v>
       </c>
-      <c r="B58" s="5">
-        <v>1</v>
-      </c>
-      <c r="C58" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="4">
         <v>1290</v>
       </c>
-      <c r="B59" s="5">
-        <v>1</v>
-      </c>
-      <c r="C59" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="4">
         <v>1329</v>
       </c>
-      <c r="B60" s="5">
-        <v>1</v>
-      </c>
-      <c r="C60" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="B60" s="5"/>
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="4">
         <v>1359</v>
       </c>
-      <c r="B61" s="5">
-        <v>1</v>
-      </c>
-      <c r="C61" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="B61" s="5"/>
+      <c r="C61" s="6"/>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="4">
         <v>1394</v>
       </c>
-      <c r="B62" s="5">
-        <v>1</v>
-      </c>
-      <c r="C62" s="6">
-        <v>0</v>
-      </c>
-      <c r="D62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="4">
         <v>1428</v>
       </c>
-      <c r="B63" s="5">
-        <v>1</v>
-      </c>
-      <c r="C63" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="B63" s="5"/>
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="4">
         <v>1432</v>
       </c>
-      <c r="B64" s="5">
-        <v>1</v>
-      </c>
-      <c r="C64" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="B64" s="5"/>
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="4">
         <v>1437</v>
       </c>
-      <c r="B65" s="5">
-        <v>1</v>
-      </c>
-      <c r="C65" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="4">
         <v>1444</v>
       </c>
-      <c r="B66" s="5">
-        <v>1</v>
-      </c>
-      <c r="C66" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="B66" s="5"/>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="4">
         <v>1477</v>
       </c>
-      <c r="B67" s="5">
-        <v>0</v>
-      </c>
-      <c r="C67" s="6">
-        <v>0</v>
-      </c>
-      <c r="D67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="B67" s="5"/>
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="4">
         <v>1487</v>
       </c>
-      <c r="B68" s="5">
-        <v>1</v>
-      </c>
-      <c r="C68" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="4">
         <v>1500</v>
       </c>
-      <c r="B69" s="5">
-        <v>1</v>
-      </c>
-      <c r="C69" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="4">
         <v>1516</v>
       </c>
-      <c r="B70" s="5">
-        <v>0</v>
-      </c>
-      <c r="C70" s="6">
-        <v>1</v>
-      </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="4">
         <v>1517</v>
       </c>
-      <c r="B71" s="5">
-        <v>1</v>
-      </c>
-      <c r="C71" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="4">
         <v>1524</v>
       </c>
-      <c r="B72" s="5">
-        <v>1</v>
-      </c>
-      <c r="C72" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="4">
         <v>1534</v>
       </c>
-      <c r="B73" s="5">
-        <v>1</v>
-      </c>
-      <c r="C73" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="4">
         <v>1592</v>
       </c>
-      <c r="B74" s="5">
-        <v>1</v>
-      </c>
-      <c r="C74" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="B74" s="5"/>
+      <c r="C74" s="6"/>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="4">
         <v>1609</v>
       </c>
-      <c r="B75" s="5">
-        <v>1</v>
-      </c>
-      <c r="C75" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="B75" s="5"/>
+      <c r="C75" s="6"/>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="4">
         <v>1612</v>
       </c>
-      <c r="B76" s="5">
-        <v>0</v>
-      </c>
-      <c r="C76" s="6">
-        <v>1</v>
-      </c>
-      <c r="D76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="B76" s="5"/>
+      <c r="C76" s="6"/>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="4">
         <v>1633</v>
       </c>
-      <c r="B77" s="5">
-        <v>1</v>
-      </c>
-      <c r="C77" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="4">
         <v>1647</v>
       </c>
-      <c r="B78" s="5">
-        <v>1</v>
-      </c>
-      <c r="C78" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="B78" s="5"/>
+      <c r="C78" s="6"/>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="4">
         <v>1650</v>
       </c>
-      <c r="B79" s="5">
-        <v>1</v>
-      </c>
-      <c r="C79" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="B79" s="5"/>
+      <c r="C79" s="6"/>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="4">
         <v>1660</v>
       </c>
-      <c r="B80" s="5">
-        <v>1</v>
-      </c>
-      <c r="C80" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="B80" s="5"/>
+      <c r="C80" s="6"/>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="4">
         <v>1676</v>
       </c>
-      <c r="B81" s="5">
-        <v>1</v>
-      </c>
-      <c r="C81" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="B81" s="5"/>
+      <c r="C81" s="6"/>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="4">
         <v>1686</v>
       </c>
-      <c r="B82" s="5">
-        <v>1</v>
-      </c>
-      <c r="C82" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="B82" s="5"/>
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="4">
         <v>1709</v>
       </c>
-      <c r="B83" s="5">
-        <v>1</v>
-      </c>
-      <c r="C83" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="B83" s="5"/>
+      <c r="C83" s="6"/>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="4">
         <v>1710</v>
       </c>
-      <c r="B84" s="5">
-        <v>0</v>
-      </c>
-      <c r="C84" s="6">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="B84" s="5"/>
+      <c r="C84" s="6"/>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="4">
         <v>1749</v>
       </c>
-      <c r="B85" s="5">
-        <v>1</v>
-      </c>
-      <c r="C85" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="B85" s="5"/>
+      <c r="C85" s="6"/>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="4">
         <v>1769</v>
       </c>
-      <c r="B86" s="5">
-        <v>1</v>
-      </c>
-      <c r="C86" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="B86" s="5"/>
+      <c r="C86" s="6"/>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="4">
         <v>1770</v>
       </c>
-      <c r="B87" s="5">
-        <v>1</v>
-      </c>
-      <c r="C87" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="B87" s="5"/>
+      <c r="C87" s="6"/>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="7">
         <v>1782</v>
       </c>
-      <c r="B88" s="8">
-        <v>0</v>
-      </c>
-      <c r="C88" s="9">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>1825</v>
       </c>
-      <c r="B89" s="12">
-        <v>1</v>
-      </c>
-      <c r="C89" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="B89" s="12"/>
+      <c r="C89" s="13"/>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="4">
         <v>1872</v>
       </c>
-      <c r="B90" s="10">
-        <v>1</v>
-      </c>
-      <c r="C90" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="B90" s="10"/>
+      <c r="C90" s="11"/>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="4">
         <v>1880</v>
       </c>
-      <c r="B91" s="10">
-        <v>1</v>
-      </c>
-      <c r="C91" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="B91" s="10"/>
+      <c r="C91" s="11"/>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="4">
         <v>1881</v>
       </c>
-      <c r="B92" s="10">
-        <v>1</v>
-      </c>
-      <c r="C92" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="B92" s="10"/>
+      <c r="C92" s="11"/>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="4">
         <v>1903</v>
       </c>
-      <c r="B93" s="10">
-        <v>1</v>
-      </c>
-      <c r="C93" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="B93" s="10"/>
+      <c r="C93" s="11"/>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="4">
         <v>1913</v>
       </c>
-      <c r="B94" s="10">
-        <v>1</v>
-      </c>
-      <c r="C94" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="B94" s="10"/>
+      <c r="C94" s="11"/>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="4">
         <v>1936</v>
       </c>
-      <c r="B95" s="10">
-        <v>1</v>
-      </c>
-      <c r="C95" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="B95" s="10"/>
+      <c r="C95" s="11"/>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="4">
         <v>1950</v>
       </c>
-      <c r="B96" s="10">
-        <v>1</v>
-      </c>
-      <c r="C96" s="11">
-        <v>1</v>
-      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="11"/>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="4">
         <v>1950</v>
       </c>
-      <c r="B97" s="10">
-        <v>1</v>
-      </c>
-      <c r="C97" s="11">
-        <v>1</v>
-      </c>
+      <c r="B97" s="10"/>
+      <c r="C97" s="11"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="4">
         <v>1963</v>
       </c>
-      <c r="B98" s="10">
-        <v>1</v>
-      </c>
-      <c r="C98" s="11">
-        <v>1</v>
-      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="11"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="4">
         <v>2030</v>
       </c>
-      <c r="B99" s="10">
-        <v>1</v>
-      </c>
-      <c r="C99" s="11">
-        <v>1</v>
-      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="11"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="4">
         <v>2047</v>
       </c>
-      <c r="B100" s="10">
-        <v>1</v>
-      </c>
-      <c r="C100" s="11">
-        <v>1</v>
-      </c>
+      <c r="B100" s="10"/>
+      <c r="C100" s="11"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="7">
         <v>2079</v>
       </c>
-      <c r="B101" s="14">
-        <v>1</v>
-      </c>
-      <c r="C101" s="15">
-        <v>1</v>
-      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="15"/>
     </row>
     <row r="102" spans="1:3">
       <c r="B102" s="10"/>
@@ -1632,41 +1197,41 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B103" s="16">
         <f>SUM(B2:B101)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C103" s="16">
         <f>SUM(C2:C101)</f>
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B104">
         <f>(SUM(B2:B88)/COUNT(B2:B88)*100)</f>
-        <v>77.011494252873561</v>
+        <v>0</v>
       </c>
       <c r="C104">
         <f>(SUM(C2:C88)/COUNT(C2:C88)*100)</f>
-        <v>86.206896551724128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>10</v>
-      </c>
-      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="B105" t="e">
         <f>(SUM(B89:B101)/COUNT(B89:B101)) * 100</f>
-        <v>100</v>
-      </c>
-      <c r="C105">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C105" t="e">
         <f>(SUM(C89:C101)/COUNT(C89:C101)) * 100</f>
-        <v>100</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
